--- a/biology/Médecine/Connectivite/Connectivite.xlsx
+++ b/biology/Médecine/Connectivite/Connectivite.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les connectivites ou collagénoses (en anglais, connective tissue disease ou CTD) sont un groupe de maladies internes qui ont en commun une atteinte diffuse, inflammatoire et chronique, du tissu conjonctif.
@@ -512,7 +524,9 @@
           <t>Autres terminologies plus ou moins obsolètes ou ambiguës</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Affection disséminée du tissu conjonctif
 Collagénoses
@@ -545,7 +559,9 @@
           <t>Classification CIM-10</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Périartérite noueuse et affections apparentées
 Périartérite noueuse M30.0
@@ -591,7 +607,9 @@
           <t>Autres connectivites classées ailleurs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>D'autres affections, non classées par la CIM-10 dans le groupe des Affections disséminées du tissu conjonctif sont considérées tout de même comme des connectivites ou maladies apparentées.
 Syndrome de Raynaud  I73.0
@@ -632,11 +650,13 @@
           <t>Connectivites, intestin et digestion</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'appareil intestinal est souvent atteint lors des connectivites et vascularites, notamment en cas de sclérodermie systémique (ScS) où le tableau de pseudo-obstruction intestinal, fréquent, peut être compliqué par une pullulation microbienne de l'intestin grêle et d'un syndrome de malabsorption pouvant conduire à une dénutrition sévère et une cachexie, avec parfois une ischémie, un infarctus et les perforations digestives. Des hémorragies (par ulcérations des muqueuses ou par ruptures d'anévrisme sont également possible[1]. 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'appareil intestinal est souvent atteint lors des connectivites et vascularites, notamment en cas de sclérodermie systémique (ScS) où le tableau de pseudo-obstruction intestinal, fréquent, peut être compliqué par une pullulation microbienne de l'intestin grêle et d'un syndrome de malabsorption pouvant conduire à une dénutrition sévère et une cachexie, avec parfois une ischémie, un infarctus et les perforations digestives. Des hémorragies (par ulcérations des muqueuses ou par ruptures d'anévrisme sont également possible. 
 Souvent le tableau clinique est peu spécifique et les explorations digestives offrent peu d’éléments pronostiques. 
-Le traitement est difficile, basé sur des immunosuppresseurs et nécessitant parfois une intervention chirurgicale[1].
+Le traitement est difficile, basé sur des immunosuppresseurs et nécessitant parfois une intervention chirurgicale.
 </t>
         </is>
       </c>
